--- a/1_analysis/OUTPUT_figures_tables/Table_1.xlsx
+++ b/1_analysis/OUTPUT_figures_tables/Table_1.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font/>
     <font>
@@ -97,95 +93,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border/>
@@ -337,7 +296,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -702,7 +661,7 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -719,7 +678,7 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="n"/>
-      <c r="B1" s="3" t="n"/>
+      <c r="B1" s="3" t="inlineStr"/>
       <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Grouped by Mortality</t>
@@ -732,7 +691,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="n"/>
-      <c r="B2" s="3" t="n"/>
+      <c r="B2" s="3" t="inlineStr"/>
       <c r="C2" s="7" t="inlineStr">
         <is>
           <t>Missing</t>
@@ -782,8 +741,8 @@
           <t>n</t>
         </is>
       </c>
-      <c r="B4" s="15" t="n"/>
-      <c r="C4" s="16" t="n"/>
+      <c r="B4" s="15" t="inlineStr"/>
+      <c r="C4" s="16" t="inlineStr"/>
       <c r="D4" s="16" t="n">
         <v>37274</v>
       </c>
@@ -793,7 +752,7 @@
       <c r="F4" s="16" t="n">
         <v>30072</v>
       </c>
-      <c r="G4" s="15" t="n"/>
+      <c r="G4" s="15" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="inlineStr">
@@ -837,7 +796,7 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C6" s="24" t="n"/>
+      <c r="C6" s="24" t="inlineStr"/>
       <c r="D6" s="25" t="inlineStr">
         <is>
           <t>15854 (42.5)</t>
@@ -853,7 +812,7 @@
           <t>12863 (42.8)</t>
         </is>
       </c>
-      <c r="G6" s="26" t="n"/>
+      <c r="G6" s="26" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="27" t="inlineStr">
@@ -861,7 +820,7 @@
           <t>Age, median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B7" s="23" t="n"/>
+      <c r="B7" s="23" t="inlineStr"/>
       <c r="C7" s="24" t="n">
         <v>0</v>
       </c>
@@ -892,7 +851,7 @@
           <t>Vaccine Doses Administered, median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B8" s="29" t="n"/>
+      <c r="B8" s="29" t="inlineStr"/>
       <c r="C8" s="30" t="n">
         <v>0</v>
       </c>
@@ -959,7 +918,7 @@
           <t>Regional Hospital</t>
         </is>
       </c>
-      <c r="C10" s="35" t="n"/>
+      <c r="C10" s="35" t="inlineStr"/>
       <c r="D10" s="36" t="inlineStr">
         <is>
           <t>14888 (39.9)</t>
@@ -975,7 +934,7 @@
           <t>12254 (40.7)</t>
         </is>
       </c>
-      <c r="G10" s="37" t="n"/>
+      <c r="G10" s="37" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="22" t="n"/>
@@ -984,7 +943,7 @@
           <t>Specialized Hospital</t>
         </is>
       </c>
-      <c r="C11" s="24" t="n"/>
+      <c r="C11" s="24" t="inlineStr"/>
       <c r="D11" s="25" t="inlineStr">
         <is>
           <t>13941 (37.4)</t>
@@ -1000,7 +959,7 @@
           <t>11313 (37.6)</t>
         </is>
       </c>
-      <c r="G11" s="26" t="n"/>
+      <c r="G11" s="26" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="inlineStr">
@@ -1044,7 +1003,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C13" s="24" t="n"/>
+      <c r="C13" s="24" t="inlineStr"/>
       <c r="D13" s="25" t="inlineStr">
         <is>
           <t>14550 (39.0)</t>
@@ -1060,7 +1019,7 @@
           <t>11074 (36.8)</t>
         </is>
       </c>
-      <c r="G13" s="26" t="n"/>
+      <c r="G13" s="26" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="27" t="inlineStr">
@@ -1103,7 +1062,7 @@
           <t>Inpatient Days, median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B15" s="29" t="n"/>
+      <c r="B15" s="29" t="inlineStr"/>
       <c r="C15" s="30" t="n">
         <v>0</v>
       </c>
@@ -1134,7 +1093,7 @@
           <t>followup_days, median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B16" s="23" t="n"/>
+      <c r="B16" s="23" t="inlineStr"/>
       <c r="C16" s="24" t="n">
         <v>0</v>
       </c>
@@ -1795,7 +1754,7 @@
           <t>Alanine Transaminase (U/L), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B35" s="29" t="n"/>
+      <c r="B35" s="29" t="inlineStr"/>
       <c r="C35" s="30" t="n">
         <v>0</v>
       </c>
@@ -1826,7 +1785,7 @@
           <t>Aspartate Transaminase (U/L), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B36" s="23" t="n"/>
+      <c r="B36" s="23" t="inlineStr"/>
       <c r="C36" s="24" t="n">
         <v>0</v>
       </c>
@@ -1857,7 +1816,7 @@
           <t>Creatinine (mg/dL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B37" s="29" t="n"/>
+      <c r="B37" s="29" t="inlineStr"/>
       <c r="C37" s="30" t="n">
         <v>0</v>
       </c>
@@ -1888,7 +1847,7 @@
           <t>C-Reactive Protein (mg/L), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B38" s="23" t="n"/>
+      <c r="B38" s="23" t="inlineStr"/>
       <c r="C38" s="24" t="n">
         <v>0</v>
       </c>
@@ -1919,7 +1878,7 @@
           <t>D-Dimer (ng/mL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B39" s="29" t="n"/>
+      <c r="B39" s="29" t="inlineStr"/>
       <c r="C39" s="30" t="n">
         <v>0</v>
       </c>
@@ -1950,7 +1909,7 @@
           <t>Glucose (mg/dL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B40" s="23" t="n"/>
+      <c r="B40" s="23" t="inlineStr"/>
       <c r="C40" s="24" t="n">
         <v>0</v>
       </c>
@@ -1981,7 +1940,7 @@
           <t>Hematocrit (%), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B41" s="29" t="n"/>
+      <c r="B41" s="29" t="inlineStr"/>
       <c r="C41" s="30" t="n">
         <v>0</v>
       </c>
@@ -2012,7 +1971,7 @@
           <t>Hemoglobin (g/dL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B42" s="23" t="n"/>
+      <c r="B42" s="23" t="inlineStr"/>
       <c r="C42" s="24" t="n">
         <v>0</v>
       </c>
@@ -2043,7 +2002,7 @@
           <t>Normalized Prothrombin Time - INR (-), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B43" s="29" t="n"/>
+      <c r="B43" s="29" t="inlineStr"/>
       <c r="C43" s="30" t="n">
         <v>0</v>
       </c>
@@ -2074,7 +2033,7 @@
           <t>Lactate Dehydrogenase (U/L), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B44" s="23" t="n"/>
+      <c r="B44" s="23" t="inlineStr"/>
       <c r="C44" s="24" t="n">
         <v>0</v>
       </c>
@@ -2105,7 +2064,7 @@
           <t>Leukocyte Count (x10^3/µL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B45" s="29" t="n"/>
+      <c r="B45" s="29" t="inlineStr"/>
       <c r="C45" s="30" t="n">
         <v>0</v>
       </c>
@@ -2136,7 +2095,7 @@
           <t>Lymphocyte Count (x10^3/µL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B46" s="23" t="n"/>
+      <c r="B46" s="23" t="inlineStr"/>
       <c r="C46" s="24" t="n">
         <v>0</v>
       </c>
@@ -2167,7 +2126,7 @@
           <t>Lymphocyte Percentage (%), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B47" s="29" t="n"/>
+      <c r="B47" s="29" t="inlineStr"/>
       <c r="C47" s="30" t="n">
         <v>0</v>
       </c>
@@ -2198,7 +2157,7 @@
           <t>Mean Corpuscular Hemoglobin (pg), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B48" s="23" t="n"/>
+      <c r="B48" s="23" t="inlineStr"/>
       <c r="C48" s="24" t="n">
         <v>0</v>
       </c>
@@ -2229,7 +2188,7 @@
           <t>Mean Corpuscular Volume (fL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B49" s="29" t="n"/>
+      <c r="B49" s="29" t="inlineStr"/>
       <c r="C49" s="30" t="n">
         <v>0</v>
       </c>
@@ -2260,7 +2219,7 @@
           <t>Neutrophil Count (x10^3/µL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B50" s="23" t="n"/>
+      <c r="B50" s="23" t="inlineStr"/>
       <c r="C50" s="24" t="n">
         <v>0</v>
       </c>
@@ -2291,7 +2250,7 @@
           <t>Neutrophil Percentage (%), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B51" s="29" t="n"/>
+      <c r="B51" s="29" t="inlineStr"/>
       <c r="C51" s="30" t="n">
         <v>0</v>
       </c>
@@ -2322,7 +2281,7 @@
           <t>Platelet Count (x10^3/µL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B52" s="23" t="n"/>
+      <c r="B52" s="23" t="inlineStr"/>
       <c r="C52" s="24" t="n">
         <v>0</v>
       </c>
@@ -2353,7 +2312,7 @@
           <t>Potassium (mEq/L in HM, mmol/L in other units), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B53" s="29" t="n"/>
+      <c r="B53" s="29" t="inlineStr"/>
       <c r="C53" s="30" t="n">
         <v>0</v>
       </c>
@@ -2384,7 +2343,7 @@
           <t>Red Blood Cell Count (x10^6/µL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B54" s="23" t="n"/>
+      <c r="B54" s="23" t="inlineStr"/>
       <c r="C54" s="24" t="n">
         <v>0</v>
       </c>
@@ -2415,7 +2374,7 @@
           <t>Sodium (mEq/L in HM, mmol/L in other units), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B55" s="29" t="n"/>
+      <c r="B55" s="29" t="inlineStr"/>
       <c r="C55" s="30" t="n">
         <v>0</v>
       </c>
@@ -2446,7 +2405,7 @@
           <t>Urea (mg/dL), median [Q1,Q3]</t>
         </is>
       </c>
-      <c r="B56" s="23" t="n"/>
+      <c r="B56" s="23" t="inlineStr"/>
       <c r="C56" s="24" t="n">
         <v>0</v>
       </c>
@@ -2478,6 +2437,6 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A9:A11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>